--- a/contatos_2M.xlsx
+++ b/contatos_2M.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/pages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F98F16D-8C3C-ED48-8848-AC43A0F331A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83179F50-8D22-8B46-B5A2-4668004E873C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$303</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="792">
   <si>
     <t>Tipo de Prestador</t>
   </si>
@@ -2410,6 +2410,12 @@
   </si>
   <si>
     <t>SAAE Indaiatuba</t>
+  </si>
+  <si>
+    <t>SOS Home Montagem de Móveis e Instalação</t>
+  </si>
+  <si>
+    <t>João</t>
   </si>
 </sst>
 </file>
@@ -2855,11 +2861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F301"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6339,17 +6345,19 @@
         <v>772</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>469</v>
+        <v>790</v>
       </c>
       <c r="C176" s="2"/>
-      <c r="D176" s="6"/>
+      <c r="D176" s="6">
+        <v>19974111755</v>
+      </c>
       <c r="E176" s="2" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" t="s">
@@ -6358,22 +6366,20 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>421</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="C177" s="2"/>
       <c r="D177" s="6">
-        <v>19974029553</v>
+        <v>19982563026</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>471</v>
+        <v>135</v>
       </c>
       <c r="F177" s="2"/>
-      <c r="G177" s="8" t="s">
+      <c r="G177" t="s">
         <v>772</v>
       </c>
     </row>
@@ -6382,37 +6388,33 @@
         <v>468</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D178" s="6">
-        <v>19998383259</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="6"/>
       <c r="E178" s="2" t="s">
-        <v>474</v>
+        <v>145</v>
       </c>
       <c r="F178" s="2"/>
-      <c r="G178" s="8" t="s">
+      <c r="G178" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>778</v>
+        <v>468</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="D179" s="6">
-        <v>19991943844</v>
+        <v>19974029553</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>11</v>
+        <v>471</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="8" t="s">
@@ -6421,38 +6423,40 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C180" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="D180" s="6">
-        <v>19981950110</v>
+        <v>19998383259</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>145</v>
+        <v>474</v>
       </c>
       <c r="F180" s="2"/>
-      <c r="G180" t="s">
+      <c r="G180" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>477</v>
+        <v>778</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D181" s="6">
-        <v>19997142750</v>
+        <v>19991943844</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>481</v>
+        <v>11</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="8" t="s">
@@ -6461,34 +6465,38 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C182" s="2"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="2"/>
+      <c r="D182" s="6">
+        <v>19981950110</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="F182" s="2"/>
-      <c r="G182" s="8" t="s">
+      <c r="G182" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D183" s="6">
-        <v>19999764748</v>
+        <v>19997142750</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>332</v>
+        <v>481</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="8" t="s">
@@ -6497,16 +6505,14 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B184" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="C184" s="2"/>
-      <c r="D184" s="6">
-        <v>19996623390</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>488</v>
-      </c>
+      <c r="D184" s="6"/>
+      <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="8" t="s">
         <v>772</v>
@@ -6514,17 +6520,19 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B185" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>485</v>
+      </c>
       <c r="C185" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D185" s="6">
-        <v>19997684981</v>
+        <v>19999764748</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>145</v>
+        <v>332</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="8" t="s">
@@ -6535,15 +6543,13 @@
       <c r="A186" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="D186" s="6"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="6">
+        <v>19996623390</v>
+      </c>
       <c r="E186" s="2" t="s">
-        <v>260</v>
+        <v>488</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="8" t="s">
@@ -6552,38 +6558,36 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>493</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D187" s="6">
-        <v>1938945766</v>
+        <v>19997684981</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>495</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F187" s="2"/>
       <c r="G187" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C188" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="D188" s="6"/>
       <c r="E188" s="2" t="s">
-        <v>498</v>
+        <v>260</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="8" t="s">
@@ -6592,40 +6596,38 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D189" s="6">
-        <v>19981950110</v>
+        <v>1938945766</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F189" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="G189" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D190" s="6">
-        <v>19999281714</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="6"/>
       <c r="E190" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="8" t="s">
@@ -6634,40 +6636,40 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D191" s="6">
-        <v>1933182928</v>
+        <v>19981950110</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>510</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F191" s="2"/>
       <c r="G191" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C192" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>501</v>
+      </c>
       <c r="D192" s="6">
-        <v>19994491033</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>513</v>
+        <v>19999281714</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="8" t="s">
@@ -6676,36 +6678,40 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D193" s="6"/>
+        <v>508</v>
+      </c>
+      <c r="D193" s="6">
+        <v>1933182928</v>
+      </c>
       <c r="E193" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F193" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="G193" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="6">
-        <v>19981999121</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>516</v>
+        <v>19994491033</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="8" t="s">
@@ -6714,19 +6720,17 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D195" s="6">
-        <v>1999143786</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="D195" s="6"/>
       <c r="E195" s="2" t="s">
-        <v>522</v>
+        <v>71</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="8" t="s">
@@ -6735,19 +6739,17 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>525</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="C196" s="2"/>
       <c r="D196" s="6">
-        <v>19984040203</v>
+        <v>19981999121</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="8" t="s">
@@ -6756,17 +6758,19 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C197" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="D197" s="6">
-        <v>19999108010</v>
+        <v>1999143786</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>57</v>
+        <v>522</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="8" t="s">
@@ -6775,200 +6779,198 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C198" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="D198" s="6">
-        <v>1938343948</v>
+        <v>19984040203</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="F198" s="2"/>
       <c r="G198" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="6">
-        <v>19996973088</v>
+        <v>19999108010</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>256</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F199" s="2"/>
       <c r="G199" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C200" s="2"/>
-      <c r="D200" s="6"/>
+      <c r="D200" s="6">
+        <v>1938343948</v>
+      </c>
       <c r="E200" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F200" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G200" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="6">
-        <v>1999723038</v>
+        <v>19996973088</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F201" s="2"/>
+      <c r="F201" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="G201" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C202" s="2"/>
-      <c r="D202" s="6">
-        <v>19998881817</v>
-      </c>
+      <c r="D202" s="6"/>
       <c r="E202" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="F202" s="2"/>
       <c r="G202" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>540</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="C203" s="2"/>
       <c r="D203" s="6">
-        <v>19996205599</v>
+        <v>1999723038</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>763</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="F203" s="2"/>
       <c r="G203" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C204" s="2"/>
-      <c r="D204" s="6"/>
+      <c r="D204" s="6">
+        <v>19998881817</v>
+      </c>
       <c r="E204" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F204" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="G204" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D205" s="6">
-        <v>19975413838</v>
+        <v>19996205599</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F205" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>763</v>
+      </c>
       <c r="G205" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C206" s="2"/>
-      <c r="D206" s="6">
-        <v>19999482072</v>
-      </c>
+      <c r="D206" s="6"/>
       <c r="E206" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>549</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="F206" s="2"/>
       <c r="G206" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D207" s="6">
-        <v>19991094585</v>
+        <v>19975413838</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="8" t="s">
@@ -6977,38 +6979,40 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2" t="s">
-        <v>554</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C208" s="2"/>
       <c r="D208" s="6">
-        <v>1938752655</v>
+        <v>19999482072</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F208" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>549</v>
+      </c>
       <c r="G208" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D209" s="6">
-        <v>19997947989</v>
+        <v>19991094585</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="8" t="s">
@@ -7017,16 +7021,18 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>559</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D210" s="6"/>
-      <c r="E210" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="D210" s="6">
+        <v>1938752655</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="F210" s="2"/>
       <c r="G210" s="8" t="s">
         <v>772</v>
@@ -7034,118 +7040,118 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C211" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="D211" s="6">
-        <v>1933927524</v>
+        <v>19997947989</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F211" s="2"/>
       <c r="G211" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>779</v>
+        <v>558</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C212" s="2"/>
-      <c r="D212" s="6">
-        <v>19991683732</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>454</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D212" s="6"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
       <c r="G212" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>780</v>
+        <v>561</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>566</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="C213" s="2"/>
       <c r="D213" s="6">
-        <v>19983397673</v>
+        <v>1933927524</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F213" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="G213" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>568</v>
+        <v>779</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="6">
-        <v>19978051812</v>
+        <v>19991683732</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F214" s="2"/>
-      <c r="G214" t="s">
-        <v>772</v>
+        <v>565</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>570</v>
+        <v>780</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C215" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>566</v>
+      </c>
       <c r="D215" s="6">
-        <v>19993927869</v>
+        <v>19983397673</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>7</v>
+        <v>567</v>
       </c>
       <c r="F215" s="2"/>
-      <c r="G215" t="s">
-        <v>772</v>
+      <c r="G215" s="8" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="6">
-        <v>19971565019</v>
+        <v>19978051812</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" t="s">
@@ -7154,39 +7160,39 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>781</v>
+        <v>570</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>573</v>
+        <v>424</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="6">
-        <v>19989963229</v>
+        <v>19993927869</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="F217" s="2"/>
-      <c r="G217" s="8" t="s">
+      <c r="G217" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>781</v>
+        <v>571</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="6">
-        <v>19981285216</v>
+        <v>19971565019</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="F218" s="2"/>
-      <c r="G218" s="8" t="s">
+      <c r="G218" t="s">
         <v>772</v>
       </c>
     </row>
@@ -7195,18 +7201,16 @@
         <v>781</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="6">
-        <v>19992691215</v>
+        <v>19989963229</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>577</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F219" s="2"/>
       <c r="G219" s="8" t="s">
         <v>772</v>
       </c>
@@ -7216,16 +7220,14 @@
         <v>781</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>579</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="C220" s="2"/>
       <c r="D220" s="6">
-        <v>19989436892</v>
+        <v>19981285216</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="8" t="s">
@@ -7236,18 +7238,18 @@
       <c r="A221" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2" t="s">
-        <v>581</v>
-      </c>
+      <c r="B221" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C221" s="2"/>
       <c r="D221" s="6">
-        <v>19997341650</v>
+        <v>19992691215</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>582</v>
+        <v>211</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>772</v>
@@ -7255,60 +7257,62 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>587</v>
+        <v>781</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="C222" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>579</v>
+      </c>
       <c r="D222" s="6">
-        <v>19998914675</v>
+        <v>19989436892</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>764</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="F222" s="2"/>
       <c r="G222" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C223" s="2"/>
+        <v>781</v>
+      </c>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="D223" s="6">
-        <v>19992366598</v>
+        <v>19997341650</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="F223" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="G223" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="6">
-        <v>19994777732</v>
+        <v>19998914675</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>224</v>
+        <v>764</v>
       </c>
       <c r="G224" s="8" t="s">
         <v>772</v>
@@ -7316,39 +7320,41 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="6">
-        <v>19983671900</v>
+        <v>19992366598</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>250</v>
+        <v>586</v>
       </c>
       <c r="F225" s="2"/>
-      <c r="G225" t="s">
+      <c r="G225" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="6">
-        <v>19989361257</v>
+        <v>19994777732</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F226" s="2"/>
-      <c r="G226" t="s">
+        <v>592</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G226" s="8" t="s">
         <v>772</v>
       </c>
     </row>
@@ -7357,14 +7363,14 @@
         <v>593</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="6">
-        <v>19991056865</v>
+        <v>19983671900</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s">
@@ -7376,14 +7382,14 @@
         <v>593</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="6">
-        <v>19991086332</v>
+        <v>19989361257</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>59</v>
+        <v>488</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s">
@@ -7392,14 +7398,14 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="6">
-        <v>19998406883</v>
+        <v>19991056865</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>137</v>
@@ -7411,17 +7417,17 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="6">
-        <v>19996918282</v>
+        <v>19991086332</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>602</v>
+        <v>59</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s">
@@ -7430,40 +7436,36 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="6">
-        <v>19989384836</v>
+        <v>19998406883</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>606</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F231" s="2"/>
       <c r="G231" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>608</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="C232" s="2"/>
       <c r="D232" s="6">
-        <v>19983671900</v>
+        <v>19996918282</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>9</v>
+        <v>602</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" t="s">
@@ -7472,38 +7474,40 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>611</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="C233" s="2"/>
       <c r="D233" s="6">
-        <v>19981766205</v>
+        <v>19989384836</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="F233" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>606</v>
+      </c>
       <c r="G233" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C234" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>608</v>
+      </c>
       <c r="D234" s="6">
-        <v>19997122002</v>
+        <v>19983671900</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>615</v>
+        <v>9</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" t="s">
@@ -7512,104 +7516,106 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D235" s="6">
-        <v>9181623568</v>
+        <v>19981766205</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>112</v>
+        <v>612</v>
       </c>
       <c r="F235" s="2"/>
-      <c r="G235" s="8" t="s">
+      <c r="G235" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>620</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="C236" s="2"/>
       <c r="D236" s="6">
-        <v>19996785936</v>
+        <v>19997122002</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>265</v>
+        <v>615</v>
       </c>
       <c r="F236" s="2"/>
-      <c r="G236" s="8" t="s">
+      <c r="G236" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D237" s="6">
-        <v>19971075809</v>
+        <v>9181623568</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F237" s="2"/>
       <c r="G237" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="C238" s="2"/>
+        <v>619</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>620</v>
+      </c>
       <c r="D238" s="6">
-        <v>19989593632</v>
+        <v>19996785936</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="F238" s="2"/>
-      <c r="G238" t="s">
+      <c r="G238" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C239" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>623</v>
+      </c>
       <c r="D239" s="6">
-        <v>19999958939</v>
+        <v>19971075809</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F239" s="2"/>
-      <c r="G239" t="s">
+        <v>624</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G239" s="8" t="s">
         <v>772</v>
       </c>
     </row>
@@ -7618,11 +7624,11 @@
         <v>625</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="6">
-        <v>19991955454</v>
+        <v>19989593632</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>137</v>
@@ -7634,17 +7640,17 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="6">
-        <v>19991966446</v>
+        <v>19999958939</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s">
@@ -7653,14 +7659,14 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="6">
-        <v>19999958939</v>
+        <v>19991955454</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>137</v>
@@ -7675,12 +7681,14 @@
         <v>629</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C243" s="2"/>
-      <c r="D243" s="6"/>
+      <c r="D243" s="6">
+        <v>19991966446</v>
+      </c>
       <c r="E243" s="2" t="s">
-        <v>635</v>
+        <v>260</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" t="s">
@@ -7692,14 +7700,14 @@
         <v>629</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="6">
-        <v>19997467644</v>
+        <v>19999958939</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>637</v>
+        <v>137</v>
       </c>
       <c r="F244" s="2"/>
       <c r="G244" t="s">
@@ -7711,14 +7719,12 @@
         <v>629</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C245" s="2"/>
-      <c r="D245" s="6">
-        <v>19988219734</v>
-      </c>
+      <c r="D245" s="6"/>
       <c r="E245" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s">
@@ -7730,14 +7736,14 @@
         <v>629</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="6">
-        <v>19987628001</v>
+        <v>19997467644</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>135</v>
+        <v>637</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" t="s">
@@ -7746,17 +7752,17 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="6">
-        <v>19991744783</v>
+        <v>19988219734</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" t="s">
@@ -7765,15 +7771,17 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C248" s="2"/>
-      <c r="D248" s="6"/>
+      <c r="D248" s="6">
+        <v>19987628001</v>
+      </c>
       <c r="E248" s="2" t="s">
-        <v>642</v>
+        <v>135</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" t="s">
@@ -7782,17 +7790,17 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D249" s="6"/>
+        <v>632</v>
+      </c>
+      <c r="C249" s="2"/>
+      <c r="D249" s="6">
+        <v>19991744783</v>
+      </c>
       <c r="E249" s="2" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" t="s">
@@ -7801,15 +7809,15 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="6"/>
       <c r="E250" s="2" t="s">
-        <v>150</v>
+        <v>642</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" t="s">
@@ -7818,17 +7826,17 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C251" s="2"/>
-      <c r="D251" s="6">
-        <v>19995384333</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D251" s="6"/>
       <c r="E251" s="2" t="s">
-        <v>15</v>
+        <v>648</v>
       </c>
       <c r="F251" s="2"/>
       <c r="G251" t="s">
@@ -7837,16 +7845,16 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>782</v>
+        <v>643</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>652</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="C252" s="2"/>
       <c r="D252" s="6"/>
-      <c r="E252" s="2"/>
+      <c r="E252" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F252" s="2"/>
       <c r="G252" t="s">
         <v>772</v>
@@ -7854,80 +7862,76 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>783</v>
+        <v>649</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="6">
-        <v>19995521215</v>
+        <v>19995384333</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F253" s="2"/>
       <c r="G253" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D254" s="6">
-        <v>11996202178</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D254" s="6"/>
+      <c r="E254" s="2"/>
       <c r="F254" s="2"/>
-      <c r="G254" s="8" t="s">
+      <c r="G254" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2" t="s">
-        <v>661</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C255" s="2"/>
       <c r="D255" s="6">
-        <v>19991129199</v>
+        <v>19995521215</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F255" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G255" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>662</v>
+        <v>784</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D256" s="6">
-        <v>19991558624</v>
+        <v>11996202178</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>665</v>
+        <v>137</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="8" t="s">
@@ -7936,142 +7940,142 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>667</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="B257" s="2"/>
       <c r="C257" s="2" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D257" s="6">
-        <v>19996132209</v>
+        <v>19991129199</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>454</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F257" s="2"/>
       <c r="G257" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D258" s="6">
-        <v>19988563936</v>
+        <v>19991558624</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F258" s="2"/>
-      <c r="G258" t="s">
+      <c r="G258" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C259" s="2"/>
+        <v>667</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>668</v>
+      </c>
       <c r="D259" s="6">
-        <v>19999839019</v>
+        <v>19996132209</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="F259" s="2"/>
+        <v>669</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="G259" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="6"/>
+        <v>666</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D260" s="6">
+        <v>19988563936</v>
+      </c>
       <c r="E260" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="F260" s="2"/>
       <c r="G260" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>679</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="C261" s="2"/>
       <c r="D261" s="6">
-        <v>11994721855</v>
+        <v>19999839019</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="G261" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="F261" s="2"/>
+      <c r="G261" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>682</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="B262" s="2"/>
       <c r="C262" s="2"/>
-      <c r="D262" s="6">
-        <v>19993772262</v>
-      </c>
+      <c r="D262" s="6"/>
       <c r="E262" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F262" s="2"/>
-      <c r="G262" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G262" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B263" s="2"/>
+        <v>677</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>678</v>
+      </c>
       <c r="C263" s="2" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D263" s="6">
-        <v>19997570737</v>
+        <v>11994721855</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>108</v>
+        <v>435</v>
       </c>
       <c r="G263" s="8" t="s">
         <v>772</v>
@@ -8079,17 +8083,17 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="6">
-        <v>19989060201</v>
+        <v>19993772262</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>145</v>
+        <v>683</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="8" t="s">
@@ -8098,20 +8102,20 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C265" s="2"/>
+        <v>686</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2" t="s">
+        <v>687</v>
+      </c>
       <c r="D265" s="6">
-        <v>19992879019</v>
+        <v>19997570737</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>234</v>
+        <v>648</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>689</v>
+        <v>108</v>
       </c>
       <c r="G265" s="8" t="s">
         <v>772</v>
@@ -8122,14 +8126,14 @@
         <v>684</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="D266" s="6"/>
+        <v>685</v>
+      </c>
+      <c r="C266" s="2"/>
+      <c r="D266" s="6">
+        <v>19989060201</v>
+      </c>
       <c r="E266" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="8" t="s">
@@ -8141,19 +8145,17 @@
         <v>684</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>693</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C267" s="2"/>
       <c r="D267" s="6">
-        <v>19971000078</v>
+        <v>19992879019</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>694</v>
+        <v>234</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="G267" s="8" t="s">
         <v>772</v>
@@ -8163,15 +8165,15 @@
       <c r="A268" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B268" s="2"/>
+      <c r="B268" s="2" t="s">
+        <v>690</v>
+      </c>
       <c r="C268" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="D268" s="6">
-        <v>19996532656</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="D268" s="6"/>
       <c r="E268" s="2" t="s">
-        <v>345</v>
+        <v>135</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="8" t="s">
@@ -8183,16 +8185,20 @@
         <v>684</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C269" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>693</v>
+      </c>
       <c r="D269" s="6">
-        <v>19970925870</v>
+        <v>19971000078</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F269" s="2"/>
+        <v>694</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>695</v>
+      </c>
       <c r="G269" s="8" t="s">
         <v>772</v>
       </c>
@@ -8201,17 +8207,15 @@
       <c r="A270" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>698</v>
-      </c>
+      <c r="B270" s="2"/>
       <c r="C270" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D270" s="6">
-        <v>19997203049</v>
+        <v>19996532656</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>95</v>
+        <v>345</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="8" t="s">
@@ -8220,42 +8224,38 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>702</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="C271" s="2"/>
       <c r="D271" s="6">
-        <v>19989560366</v>
+        <v>19970925870</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>703</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="F271" s="2"/>
       <c r="G271" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>785</v>
+        <v>684</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D272" s="6">
-        <v>19997698086</v>
+        <v>19997203049</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>706</v>
+        <v>95</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="8" t="s">
@@ -8264,22 +8264,22 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>785</v>
+        <v>700</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D273" s="6">
-        <v>19997861827</v>
+        <v>19989560366</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>709</v>
+        <v>100</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>766</v>
+        <v>703</v>
       </c>
       <c r="G273" s="8" t="s">
         <v>772</v>
@@ -8289,15 +8289,17 @@
       <c r="A274" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="B274" s="2"/>
+      <c r="B274" s="2" t="s">
+        <v>704</v>
+      </c>
       <c r="C274" s="2" t="s">
-        <v>222</v>
+        <v>705</v>
       </c>
       <c r="D274" s="6">
-        <v>19974123102</v>
+        <v>19997698086</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>95</v>
+        <v>706</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="8" t="s">
@@ -8309,19 +8311,19 @@
         <v>785</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D275" s="6">
-        <v>19982386822</v>
+        <v>19997861827</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>43</v>
+        <v>709</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>712</v>
+        <v>766</v>
       </c>
       <c r="G275" s="8" t="s">
         <v>772</v>
@@ -8329,41 +8331,41 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>715</v>
+        <v>785</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" s="2" t="s">
-        <v>716</v>
+        <v>222</v>
       </c>
       <c r="D276" s="6">
-        <v>19987814978</v>
+        <v>19974123102</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>466</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F276" s="2"/>
       <c r="G276" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>715</v>
+        <v>785</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C277" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>711</v>
+      </c>
       <c r="D277" s="6">
-        <v>19987814978</v>
+        <v>19982386822</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>454</v>
+        <v>712</v>
       </c>
       <c r="G277" s="8" t="s">
         <v>772</v>
@@ -8373,59 +8375,59 @@
       <c r="A278" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="B278" s="2"/>
       <c r="C278" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D278" s="6">
-        <v>19989197770</v>
+        <v>19987814978</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F278" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="G278" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>720</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="C279" s="2"/>
       <c r="D279" s="6">
-        <v>1938348079</v>
+        <v>19987814978</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F279" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="G279" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>722</v>
+        <v>284</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D280" s="6">
-        <v>19997630860</v>
+        <v>19989197770</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>724</v>
+        <v>7</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="8" t="s">
@@ -8434,72 +8436,78 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="C281" s="2"/>
-      <c r="D281" s="6"/>
+        <v>719</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D281" s="6">
+        <v>1938348079</v>
+      </c>
       <c r="E281" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>466</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="F281" s="2"/>
       <c r="G281" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="C282" s="2"/>
+        <v>722</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>723</v>
+      </c>
       <c r="D282" s="6">
-        <v>19997054080</v>
+        <v>19997630860</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>648</v>
+        <v>724</v>
       </c>
       <c r="F282" s="2"/>
-      <c r="G282" t="s">
+      <c r="G282" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>787</v>
+        <v>721</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>786</v>
+        <v>725</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="6"/>
       <c r="E283" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F283" s="2"/>
-      <c r="G283" t="s">
-        <v>770</v>
+        <v>726</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G283" s="8" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="6">
-        <v>3592480284</v>
+        <v>19997054080</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>731</v>
+        <v>648</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" t="s">
@@ -8508,36 +8516,34 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>729</v>
+        <v>787</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>732</v>
+        <v>786</v>
       </c>
       <c r="C285" s="2"/>
-      <c r="D285" s="6">
-        <v>19974061580</v>
-      </c>
+      <c r="D285" s="6"/>
       <c r="E285" s="2" t="s">
-        <v>733</v>
+        <v>59</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="6">
-        <v>19997892388</v>
+        <v>3592480284</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>648</v>
+        <v>731</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" t="s">
@@ -8546,38 +8552,36 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="6">
-        <v>19992144704</v>
+        <v>19974061580</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>737</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="F287" s="2"/>
       <c r="G287" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="6">
-        <v>19992679775</v>
+        <v>19997892388</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>741</v>
+        <v>648</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" t="s">
@@ -8586,14 +8590,14 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="6">
-        <v>19975734486</v>
+        <v>19992144704</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>736</v>
@@ -8607,19 +8611,17 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>749</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="C290" s="2"/>
       <c r="D290" s="6">
-        <v>19993480608</v>
+        <v>19992679775</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" t="s">
@@ -8628,36 +8630,40 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B291" s="2"/>
-      <c r="C291" s="2" t="s">
-        <v>732</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C291" s="2"/>
       <c r="D291" s="6">
-        <v>19992837841</v>
+        <v>19975734486</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="F291" s="2"/>
+        <v>736</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>737</v>
+      </c>
       <c r="G291" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B292" s="2"/>
+        <v>747</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>748</v>
+      </c>
       <c r="C292" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D292" s="6">
-        <v>19991857696</v>
+        <v>19993480608</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" t="s">
@@ -8666,17 +8672,17 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C293" s="2"/>
+        <v>744</v>
+      </c>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2" t="s">
+        <v>732</v>
+      </c>
       <c r="D293" s="6">
-        <v>19991505521</v>
+        <v>19992837841</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>234</v>
+        <v>745</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" t="s">
@@ -8685,139 +8691,177 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C294" s="2"/>
+        <v>744</v>
+      </c>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2" t="s">
+        <v>746</v>
+      </c>
       <c r="D294" s="6">
-        <v>19994915696</v>
+        <v>19991857696</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G294" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="F294" s="2"/>
+      <c r="G294" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C295" s="2"/>
-      <c r="D295" s="6"/>
-      <c r="E295" s="2"/>
+      <c r="D295" s="6">
+        <v>19991505521</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="F295" s="2"/>
+      <c r="G295" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>197</v>
+        <v>753</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D296" s="6"/>
+        <v>754</v>
+      </c>
+      <c r="C296" s="2"/>
+      <c r="D296" s="6">
+        <v>19994915696</v>
+      </c>
       <c r="E296" s="2" t="s">
-        <v>201</v>
+        <v>755</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>200</v>
+        <v>274</v>
+      </c>
+      <c r="G296" s="8" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B297" s="2"/>
+        <v>756</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>757</v>
+      </c>
       <c r="C297" s="2"/>
-      <c r="D297" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="D297" s="6"/>
+      <c r="E297" s="2"/>
       <c r="F297" s="2"/>
-      <c r="G297" t="s">
-        <v>772</v>
-      </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A298" s="4" t="s">
-        <v>408</v>
+      <c r="A298" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C298" s="2">
-        <v>3875.9299000000001</v>
-      </c>
-      <c r="D298" s="6">
-        <v>19991663519</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D298" s="6"/>
       <c r="E298" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F298" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>655</v>
+        <v>241</v>
       </c>
       <c r="B299" s="2"/>
-      <c r="C299" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="D299" s="6">
-        <v>19983460215</v>
+      <c r="C299" s="2"/>
+      <c r="D299" s="6" t="s">
+        <v>776</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>657</v>
+        <v>242</v>
       </c>
       <c r="F299" s="2"/>
-    </row>
-    <row r="300" spans="1:7" ht="39" x14ac:dyDescent="0.2">
-      <c r="A300" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="E300" s="2"/>
+      <c r="G299" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C300" s="2">
+        <v>3875.9299000000001</v>
+      </c>
+      <c r="D300" s="6">
+        <v>19991663519</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="F300" s="2"/>
-      <c r="G300" t="s">
-        <v>772</v>
-      </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D301" s="6">
+        <v>19983460215</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B303" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C301" s="2"/>
-      <c r="D301" s="6">
+      <c r="C303" s="2"/>
+      <c r="D303" s="6">
         <v>19999098550</v>
       </c>
-      <c r="E301" s="2" t="s">
+      <c r="E303" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F301" s="2"/>
+      <c r="F303" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G301" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}"/>
+  <autoFilter ref="A1:G303" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}"/>
   <hyperlinks>
     <hyperlink ref="B151" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
   </hyperlinks>

--- a/contatos_2M.xlsx
+++ b/contatos_2M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/pages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83179F50-8D22-8B46-B5A2-4668004E873C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BD4F33-6EB5-3E43-8365-CD968B31FAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -2519,7 +2519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2546,6 +2546,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2861,11 +2865,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G214" sqref="G214"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A284" sqref="A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2901,7 +2906,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>767</v>
       </c>
@@ -2920,7 +2925,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2939,7 +2944,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2979,7 +2984,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -3002,7 +3007,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3021,7 +3026,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -3042,7 +3047,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3061,7 +3066,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3082,7 +3087,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -3101,7 +3106,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3122,7 +3127,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -3139,7 +3144,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -3158,7 +3163,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -3177,7 +3182,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -3200,7 +3205,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -3215,7 +3220,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -3234,7 +3239,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -3251,7 +3256,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -3268,7 +3273,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -3283,7 +3288,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -3304,7 +3309,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -3325,7 +3330,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -3344,7 +3349,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -3363,7 +3368,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -3378,7 +3383,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -3399,7 +3404,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>762</v>
       </c>
@@ -3422,7 +3427,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -3443,7 +3448,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
@@ -3464,7 +3469,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
@@ -3485,7 +3490,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
@@ -3506,7 +3511,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
@@ -3525,7 +3530,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>96</v>
       </c>
@@ -3548,7 +3553,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>96</v>
       </c>
@@ -3567,7 +3572,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>98</v>
       </c>
@@ -3586,7 +3591,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>101</v>
       </c>
@@ -3607,7 +3612,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>98</v>
       </c>
@@ -3626,7 +3631,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>98</v>
       </c>
@@ -3645,7 +3650,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>98</v>
       </c>
@@ -3664,7 +3669,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>98</v>
       </c>
@@ -3685,7 +3690,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>117</v>
       </c>
@@ -3702,7 +3707,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -3721,7 +3726,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
@@ -3744,7 +3749,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>128</v>
       </c>
@@ -3765,7 +3770,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>132</v>
       </c>
@@ -3786,7 +3791,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
@@ -3805,7 +3810,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -3824,1217 +3829,1214 @@
         <v>772</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>140</v>
+        <v>774</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="6">
-        <v>19983443309</v>
+        <v>19998533866</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>140</v>
+        <v>774</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" s="6">
-        <v>19925163605</v>
+        <v>19992414567</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G50" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>146</v>
+        <v>775</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="6">
-        <v>1938943730</v>
+        <v>19974123102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F51" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G51" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>146</v>
+        <v>775</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="6">
-        <v>19993628716</v>
+        <v>19978269342</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>151</v>
+        <v>773</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>153</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" s="6">
-        <v>19997792410</v>
+        <v>19997228765</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>151</v>
+        <v>773</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="D54" s="6">
-        <v>19991571278</v>
+        <v>19981296616</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>151</v>
+        <v>773</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" s="6">
-        <v>19995001992</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="6">
+        <v>19983443309</v>
+      </c>
       <c r="E56" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D57" s="6">
-        <v>19992931993</v>
+        <v>19925163605</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="6">
+        <v>1938943730</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="2"/>
+      <c r="D59" s="6">
+        <v>19993628716</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="D60" s="6">
-        <v>19993006755</v>
+        <v>19997792410</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D61" s="6">
-        <v>19981486077</v>
+        <v>19991571278</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="D62" s="6">
-        <v>19997743011</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>180</v>
-      </c>
+        <v>19995001992</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="6">
-        <v>19998044958</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D63" s="6"/>
       <c r="E63" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="6">
-        <v>19974117768</v>
+        <v>19992931993</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>765</v>
+        <v>155</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="6">
-        <v>19993384323</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="6">
-        <v>19974117768</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G66" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="6">
-        <v>19998087893</v>
+        <v>19993006755</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="6">
+        <v>19981486077</v>
+      </c>
       <c r="E68" s="2" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2" t="s">
-        <v>204</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" s="6">
-        <v>19981177545</v>
+        <v>19997743011</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="C70" s="2" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D70" s="6">
-        <v>19997577471</v>
+        <v>19998044958</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F70" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="G70" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="C71" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D71" s="6">
-        <v>19981614616</v>
+        <v>19974117768</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F71" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>765</v>
+      </c>
       <c r="G71" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2" t="s">
-        <v>207</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" s="6">
-        <v>19981354844</v>
+        <v>19993384323</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="G72" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" s="6">
-        <v>19998119589</v>
+        <v>19974117768</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="6">
+        <v>19998087893</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="6">
+        <v>19981177545</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="6">
+        <v>19997577471</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="6">
+        <v>19981614616</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="6">
+        <v>19981354844</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D81" s="6">
+        <v>19998119589</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D82" s="6">
         <v>19991656931</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="26" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="6">
-        <v>19997228765</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G75" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="26" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D76" s="6">
-        <v>19981296616</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="G76" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="26" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="6">
-        <v>19998533866</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="6">
-        <v>19992414567</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F79" s="2"/>
-      <c r="G79" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="6">
-        <v>19974123102</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G80" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="6">
-        <v>19978269342</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="G81" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D82" s="6">
-        <v>19974074239</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="G82" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D83" s="6">
+        <v>19974074239</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="6">
-        <v>19983550284</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="G83" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="6">
+        <v>19983550284</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="6">
         <v>19983838478</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G84" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="G85" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" s="2"/>
-      <c r="G85" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="6"/>
       <c r="E86" s="2" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>760</v>
+        <v>237</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="6"/>
       <c r="E87" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="F87" s="2"/>
       <c r="G87" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D88" s="6">
-        <v>6796723326</v>
+      <c r="C88" s="2"/>
+      <c r="D88" s="6" t="s">
+        <v>776</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>248</v>
+        <v>760</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="6">
-        <v>19981999121</v>
-      </c>
+      <c r="D89" s="6"/>
       <c r="E89" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F89" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="G89" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D90" s="6">
-        <v>19995447306</v>
+        <v>6796723326</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="6">
-        <v>19974100212</v>
+        <v>19981999121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="6">
+        <v>19995447306</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="6">
+        <v>19974100212</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="2" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G94" s="8" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D95" s="6">
         <v>19991517458</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="6">
-        <v>19997331433</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D95" s="6">
-        <v>19981558061</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D96" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="6">
+        <v>19997331433</v>
+      </c>
       <c r="E96" s="2" t="s">
-        <v>268</v>
+        <v>145</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="D97" s="6">
-        <v>19982254000</v>
+        <v>19981558061</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>271</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F97" s="2"/>
       <c r="G97" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="6">
-        <v>19997331433</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="6"/>
       <c r="E98" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>274</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="F98" s="2"/>
       <c r="G98" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="6">
-        <v>19996049074</v>
+        <v>19982254000</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F99" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="G99" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="B100" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" s="2"/>
       <c r="D100" s="6">
-        <v>19383429</v>
+        <v>19997331433</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F100" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="G100" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>279</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" s="6">
-        <v>19982182</v>
+        <v>19996049074</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>282</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D102" s="6">
-        <v>19997197564</v>
+        <v>19383429</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D103" s="6">
+        <v>19982182</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D104" s="6">
+        <v>19997197564</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C105" s="2">
         <v>3936.3072999999999</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D105" s="6">
         <v>1939356190</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F103" s="2"/>
-      <c r="G103" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="6">
-        <v>19971197515</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F104" s="2"/>
-      <c r="G104" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="6">
-        <v>19987208820</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="6">
-        <v>19996322904</v>
+        <v>19971197515</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="6">
-        <v>19971689885</v>
+        <v>19987208820</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>297</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F107" s="2"/>
       <c r="G107" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="6">
-        <v>19987021223</v>
+        <v>19996322904</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="6">
-        <v>19987450251</v>
+        <v>19971689885</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F109" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="G109" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="6">
-        <v>19997160608</v>
+        <v>19987021223</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>299</v>
@@ -5044,672 +5046,670 @@
         <v>772</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>301</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C111" s="2"/>
       <c r="D111" s="6">
-        <v>19978973485</v>
+        <v>19987450251</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="6">
-        <v>19989616668</v>
+        <v>19997160608</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="6"/>
+        <v>300</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D113" s="6">
+        <v>19978973485</v>
+      </c>
       <c r="E113" s="2" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C114" s="2"/>
       <c r="D114" s="6">
-        <v>19988881507</v>
+        <v>19989616668</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D115" s="6">
-        <v>19988186434</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="2" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C116" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="D116" s="6">
-        <v>19992003165</v>
+        <v>19988881507</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B117" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="C117" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D117" s="6">
-        <v>19994944253</v>
+        <v>19988186434</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2" t="s">
-        <v>319</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C118" s="2"/>
       <c r="D118" s="6">
-        <v>19982768600</v>
+        <v>19992003165</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D119" s="6">
+        <v>19994944253</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D120" s="6">
+        <v>19982768600</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="2" t="s">
+      <c r="C121" s="2"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F119" s="2"/>
-      <c r="G119" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="6">
-        <v>19970500222</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F120" s="2"/>
-      <c r="G120" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="6">
-        <v>19981550926</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>327</v>
-      </c>
+      <c r="F121" s="2"/>
       <c r="G121" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="6">
-        <v>19994915020</v>
+        <v>19970500222</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>330</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="6">
-        <v>19994007804</v>
+        <v>19981550926</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F123" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="G123" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="6">
-        <v>19997348273</v>
+        <v>19994915020</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="6">
-        <v>19971501816</v>
+        <v>19994007804</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2" t="s">
-        <v>339</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C126" s="2"/>
       <c r="D126" s="6">
-        <v>19993365228</v>
+        <v>19997348273</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F126" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="G126" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C127" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="D127" s="6">
-        <v>19982892852</v>
+        <v>19992397490</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>7</v>
+        <v>345</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B128" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="C128" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D128" s="6">
-        <v>19997151464</v>
+        <v>19974188185</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="F128" s="2"/>
       <c r="G128" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>777</v>
+        <v>336</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C129" s="2"/>
       <c r="D129" s="6">
-        <v>19992397490</v>
+        <v>19971501816</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>345</v>
+        <v>137</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>777</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D130" s="6">
-        <v>19974188185</v>
+        <v>19992397490</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>322</v>
+        <v>777</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D131" s="6">
-        <v>19992397490</v>
+        <v>19974188185</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>346</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D132" s="6">
-        <v>19974188185</v>
+        <v>19993365228</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>347</v>
+        <v>193</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="6">
-        <v>19983580744</v>
+        <v>19982892852</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>354</v>
+        <v>7</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B134" s="2"/>
       <c r="C134" s="2" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="D134" s="6">
-        <v>19954381919</v>
+        <v>19997151464</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F134" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="G134" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C135" s="2"/>
       <c r="D135" s="6">
-        <v>19996601477</v>
+        <v>19983580744</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="D136" s="6">
-        <v>19971501618</v>
+        <v>19954381919</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>137</v>
+        <v>357</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>362</v>
+        <v>139</v>
       </c>
       <c r="D137" s="6">
-        <v>19998370990</v>
+        <v>19996601477</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="D138" s="6">
-        <v>11933442554</v>
+        <v>19971501618</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>366</v>
+        <v>137</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D139" s="6">
-        <v>16997682703</v>
+        <v>19998370990</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>351</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="F139" s="2"/>
       <c r="G139" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D140" s="6">
-        <v>19991841308</v>
+        <v>11933442554</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D141" s="6">
+        <v>16997682703</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D142" s="6">
+        <v>19991841308</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="6">
+      <c r="C143" s="2"/>
+      <c r="D143" s="6">
         <v>19974202908</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G141" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D142" s="6">
-        <v>1937273393</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F143" s="2"/>
-      <c r="G143" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G143" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>377</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>377</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>377</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>381</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>381</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>384</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>390</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>393</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>395</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>398</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>398</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>398</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>398</v>
       </c>
@@ -5963,1487 +5963,1483 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C157" s="2">
+        <v>3875.9299000000001</v>
+      </c>
+      <c r="D157" s="6">
+        <v>19991663519</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F157" s="2"/>
+      <c r="G157" s="11"/>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D158" s="6">
         <v>19996603159</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="F157" s="2"/>
-      <c r="G157" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="6">
-        <v>19983069292</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="6">
-        <v>1936561736</v>
+        <v>19983069292</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>418</v>
+        <v>768</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>421</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C160" s="2"/>
       <c r="D160" s="6">
-        <v>19997103010</v>
+        <v>1936561736</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D161" s="6">
-        <v>19974233582</v>
+        <v>19997103010</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D162" s="6">
+        <v>19974233582</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D163" s="6"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="6">
+        <v>19995521215</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D162" s="6">
+      <c r="D165" s="6">
         <v>19974195470</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G162" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
+      <c r="G165" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="6">
-        <v>19991752220</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D164" s="6">
-        <v>19970891250</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="G164" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="6">
-        <v>19987431126</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F165" s="2"/>
-      <c r="G165" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="6">
-        <v>19995881539</v>
+        <v>19991752220</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F166" s="2"/>
-      <c r="G166" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C167" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>437</v>
+      </c>
       <c r="D167" s="6">
-        <v>19983990026</v>
+        <v>19970891250</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>330</v>
+        <v>439</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B168" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="C168" s="2"/>
       <c r="D168" s="6">
-        <v>19984497169</v>
+        <v>19987431126</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F168" s="2"/>
-      <c r="G168" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G168" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C169" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="D169" s="6">
-        <v>19993419181</v>
+        <v>1937273393</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>450</v>
+        <v>345</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>451</v>
+        <v>375</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D170" s="6">
-        <v>19987193408</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="6"/>
       <c r="E170" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G170" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="6">
-        <v>19993413737</v>
+        <v>19995881539</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>458</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="F171" s="2"/>
       <c r="G171" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C172" s="2"/>
-      <c r="D172" s="6"/>
+      <c r="D172" s="6">
+        <v>19983990026</v>
+      </c>
       <c r="E172" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F172" s="2"/>
-      <c r="G172" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G172" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>462</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="6">
-        <v>19953985696</v>
+        <v>19984497169</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F173" s="2"/>
-      <c r="G173" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G173" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="6">
-        <v>19992924435</v>
+        <v>19993419181</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G174" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C175" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="D175" s="6">
-        <v>19997144717</v>
+        <v>19987193408</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F175" s="2"/>
-      <c r="G175" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G175" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>790</v>
+        <v>456</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="6">
-        <v>19974111755</v>
+        <v>19993413737</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>458</v>
+      </c>
       <c r="G176" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>791</v>
+        <v>459</v>
       </c>
       <c r="C177" s="2"/>
-      <c r="D177" s="6">
-        <v>19982563026</v>
-      </c>
+      <c r="D177" s="6"/>
       <c r="E177" s="2" t="s">
-        <v>135</v>
+        <v>460</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>468</v>
+        <v>784</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C178" s="2"/>
-      <c r="D178" s="6"/>
+        <v>658</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D178" s="6">
+        <v>11996202178</v>
+      </c>
       <c r="E178" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F178" s="2"/>
-      <c r="G178" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G178" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>468</v>
+        <v>779</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>421</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="C179" s="2"/>
       <c r="D179" s="6">
-        <v>19974029553</v>
+        <v>19991683732</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F179" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="G179" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>473</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C180" s="2"/>
       <c r="D180" s="6">
-        <v>19998383259</v>
+        <v>19953985696</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>474</v>
+        <v>137</v>
       </c>
       <c r="F180" s="2"/>
-      <c r="G180" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G180" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>778</v>
+        <v>463</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>476</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="C181" s="2"/>
       <c r="D181" s="6">
-        <v>19991943844</v>
+        <v>19992924435</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F181" s="2"/>
-      <c r="G181" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G181" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="6">
-        <v>19981950110</v>
+        <v>19997144717</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>480</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="C183" s="2"/>
       <c r="D183" s="6">
-        <v>19997142750</v>
+        <v>19974111755</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>481</v>
+        <v>7</v>
       </c>
       <c r="F183" s="2"/>
-      <c r="G183" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G183" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>483</v>
+        <v>791</v>
       </c>
       <c r="C184" s="2"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="2"/>
+      <c r="D184" s="6">
+        <v>19982563026</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="F184" s="2"/>
-      <c r="G184" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G184" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>484</v>
+        <v>778</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D185" s="6">
-        <v>19999764748</v>
+        <v>19991943844</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>332</v>
+        <v>11</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B186" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="C186" s="2"/>
-      <c r="D186" s="6">
-        <v>19996623390</v>
-      </c>
+      <c r="D186" s="6"/>
       <c r="E186" s="2" t="s">
-        <v>488</v>
+        <v>145</v>
       </c>
       <c r="F186" s="2"/>
-      <c r="G186" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G186" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B187" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="C187" s="2" t="s">
-        <v>489</v>
+        <v>421</v>
       </c>
       <c r="D187" s="6">
-        <v>19997684981</v>
+        <v>19974029553</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>145</v>
+        <v>471</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="D188" s="6"/>
+        <v>473</v>
+      </c>
+      <c r="D188" s="6">
+        <v>19998383259</v>
+      </c>
       <c r="E188" s="2" t="s">
-        <v>260</v>
+        <v>474</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>494</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C189" s="2"/>
       <c r="D189" s="6">
-        <v>1938945766</v>
+        <v>19981950110</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G189" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="F189" s="2"/>
+      <c r="G189" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C190" s="2"/>
-      <c r="D190" s="6"/>
+        <v>479</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D190" s="6">
+        <v>19997142750</v>
+      </c>
       <c r="E190" s="2" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D191" s="6">
-        <v>19981950110</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D192" s="6">
-        <v>19999281714</v>
+        <v>19999764748</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>502</v>
+        <v>332</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>508</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
       <c r="D193" s="6">
-        <v>1933182928</v>
+        <v>19996623390</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>510</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="F193" s="2"/>
       <c r="G193" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C194" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="D194" s="6">
-        <v>19994491033</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>513</v>
+        <v>19997684981</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="2" t="s">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C196" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>494</v>
+      </c>
       <c r="D196" s="6">
-        <v>19981999121</v>
+        <v>1938945766</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F196" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="G196" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D197" s="6">
-        <v>1999143786</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" s="6"/>
       <c r="E197" s="2" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="D198" s="6">
-        <v>19984040203</v>
+        <v>19981950110</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>526</v>
+        <v>145</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C199" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>501</v>
+      </c>
       <c r="D199" s="6">
-        <v>19999108010</v>
+        <v>19999281714</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>57</v>
+        <v>502</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C200" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="D200" s="6">
-        <v>1938343948</v>
+        <v>1933182928</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>193</v>
+        <v>509</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>108</v>
+        <v>510</v>
       </c>
       <c r="G200" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="6">
-        <v>19996973088</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>256</v>
-      </c>
+        <v>19994491033</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="F201" s="2"/>
       <c r="G201" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C202" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="D202" s="6"/>
       <c r="E202" s="2" t="s">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="6">
-        <v>1999723038</v>
+        <v>19981999121</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>187</v>
+        <v>516</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C204" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="D204" s="6">
-        <v>19998881817</v>
+        <v>1999143786</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="F204" s="2"/>
       <c r="G204" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="D205" s="6">
-        <v>19996205599</v>
+        <v>19984040203</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>763</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="F205" s="2"/>
       <c r="G205" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="C206" s="2"/>
-      <c r="D206" s="6"/>
+      <c r="D206" s="6">
+        <v>19999108010</v>
+      </c>
       <c r="E206" s="2" t="s">
-        <v>326</v>
+        <v>57</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>546</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C207" s="2"/>
       <c r="D207" s="6">
-        <v>19975413838</v>
+        <v>1938343948</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F207" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G207" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="6">
-        <v>19999482072</v>
+        <v>19996973088</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>548</v>
+        <v>187</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>549</v>
+        <v>256</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D209" s="6">
-        <v>19991094585</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C209" s="2"/>
+      <c r="D209" s="6"/>
       <c r="E209" s="2" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2" t="s">
-        <v>554</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C210" s="2"/>
       <c r="D210" s="6">
-        <v>1938752655</v>
+        <v>1999723038</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>555</v>
+        <v>187</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" s="6">
+        <v>19998881817</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D212" s="6">
+        <v>19996205599</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F213" s="2"/>
+      <c r="G213" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D214" s="6">
+        <v>19975413838</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F214" s="2"/>
+      <c r="G214" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" s="6">
+        <v>19999482072</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D216" s="6">
+        <v>19991094585</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F216" s="2"/>
+      <c r="G216" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B217" s="2"/>
+      <c r="C217" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D217" s="6">
+        <v>1938752655</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F217" s="2"/>
+      <c r="G217" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D211" s="6">
+      <c r="D218" s="6">
         <v>19997947989</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="E218" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F211" s="2"/>
-      <c r="G211" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
+      <c r="F218" s="2"/>
+      <c r="G218" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C219" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D212" s="6"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C213" s="2"/>
-      <c r="D213" s="6">
-        <v>1933927524</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G213" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C214" s="2"/>
-      <c r="D214" s="6">
-        <v>19991683732</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G214" s="8" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D215" s="6">
-        <v>19983397673</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F215" s="2"/>
-      <c r="G215" s="8" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C216" s="2"/>
-      <c r="D216" s="6">
-        <v>19978051812</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F216" s="2"/>
-      <c r="G216" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C217" s="2"/>
-      <c r="D217" s="6">
-        <v>19993927869</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F217" s="2"/>
-      <c r="G217" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C218" s="2"/>
-      <c r="D218" s="6">
-        <v>19971565019</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F218" s="2"/>
-      <c r="G218" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C219" s="2"/>
-      <c r="D219" s="6">
-        <v>19989963229</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="D219" s="6"/>
+      <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>781</v>
+        <v>561</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="6">
-        <v>19981285216</v>
+        <v>1933927524</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F220" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="G220" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>576</v>
+        <v>786</v>
       </c>
       <c r="C221" s="2"/>
-      <c r="D221" s="6">
-        <v>19992691215</v>
-      </c>
+      <c r="D221" s="6"/>
       <c r="E221" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G221" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="F221" s="2"/>
+      <c r="G221" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>781</v>
+        <v>568</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>579</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="C222" s="2"/>
       <c r="D222" s="6">
-        <v>19989436892</v>
+        <v>19978051812</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>580</v>
+        <v>234</v>
       </c>
       <c r="F222" s="2"/>
-      <c r="G222" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G222" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2" t="s">
-        <v>581</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C223" s="2"/>
       <c r="D223" s="6">
-        <v>19997341650</v>
+        <v>19993927869</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="G223" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F223" s="2"/>
+      <c r="G223" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="6">
-        <v>19998914675</v>
+        <v>19971565019</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="G224" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="F224" s="2"/>
+      <c r="G224" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="6">
-        <v>19992366598</v>
+        <v>19998914675</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="F225" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>764</v>
+      </c>
       <c r="G225" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="6">
-        <v>19994777732</v>
+        <v>19992366598</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>224</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="F226" s="2"/>
       <c r="G226" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="6">
-        <v>19983671900</v>
+        <v>19994777732</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F227" s="2"/>
-      <c r="G227" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G227" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>593</v>
+        <v>780</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C228" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>566</v>
+      </c>
       <c r="D228" s="6">
-        <v>19989361257</v>
+        <v>19983397673</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>488</v>
+        <v>567</v>
       </c>
       <c r="F228" s="2"/>
-      <c r="G228" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G228" s="10" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>593</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="6">
-        <v>19991056865</v>
+        <v>19983671900</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>593</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="6">
-        <v>19991086332</v>
+        <v>19989361257</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>59</v>
+        <v>488</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="6">
-        <v>19998406883</v>
+        <v>19991056865</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>137</v>
@@ -7453,220 +7449,220 @@
         <v>772</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="6">
-        <v>19996918282</v>
+        <v>19991086332</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>602</v>
+        <v>59</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="6">
-        <v>19989384836</v>
+        <v>19998406883</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>606</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F233" s="2"/>
       <c r="G233" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>608</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="C234" s="2"/>
       <c r="D234" s="6">
-        <v>19983671900</v>
+        <v>19996918282</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>9</v>
+        <v>602</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>611</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="C235" s="2"/>
       <c r="D235" s="6">
-        <v>19981766205</v>
+        <v>19989384836</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="F235" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>606</v>
+      </c>
       <c r="G235" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C236" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>608</v>
+      </c>
       <c r="D236" s="6">
-        <v>19997122002</v>
+        <v>19983671900</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>615</v>
+        <v>9</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D237" s="6">
+        <v>19981766205</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" s="6">
+        <v>19997122002</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F238" s="2"/>
+      <c r="G238" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="D237" s="6">
+      <c r="D239" s="6">
         <v>9181623568</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="E239" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F237" s="2"/>
-      <c r="G237" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
+      <c r="F239" s="2"/>
+      <c r="G239" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C240" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D238" s="6">
+      <c r="D240" s="6">
         <v>19996785936</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E240" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F238" s="2"/>
-      <c r="G238" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
+      <c r="F240" s="2"/>
+      <c r="G240" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D239" s="6">
+      <c r="D241" s="6">
         <v>19971075809</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="E241" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="F239" s="2" t="s">
+      <c r="F241" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G239" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="C240" s="2"/>
-      <c r="D240" s="6">
-        <v>19989593632</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F240" s="2"/>
-      <c r="G240" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C241" s="2"/>
-      <c r="D241" s="6">
-        <v>19999958939</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F241" s="2"/>
-      <c r="G241" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G241" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>625</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="6">
-        <v>19991955454</v>
+        <v>19989593632</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>137</v>
@@ -7676,35 +7672,35 @@
         <v>772</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="6">
-        <v>19991966446</v>
+        <v>19999958939</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="6">
-        <v>19999958939</v>
+        <v>19991955454</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>137</v>
@@ -7714,782 +7710,769 @@
         <v>772</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>629</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C245" s="2"/>
-      <c r="D245" s="6"/>
+      <c r="D245" s="6">
+        <v>19991966446</v>
+      </c>
       <c r="E245" s="2" t="s">
-        <v>635</v>
+        <v>260</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>629</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="6">
-        <v>19997467644</v>
+        <v>19999958939</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>637</v>
+        <v>137</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>629</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C247" s="2"/>
-      <c r="D247" s="6">
-        <v>19988219734</v>
-      </c>
+      <c r="D247" s="6"/>
       <c r="E247" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>629</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="6">
-        <v>19987628001</v>
+        <v>19997467644</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>135</v>
+        <v>637</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="6">
-        <v>19991744783</v>
+        <v>19988219734</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C250" s="2"/>
-      <c r="D250" s="6"/>
+      <c r="D250" s="6">
+        <v>19987628001</v>
+      </c>
       <c r="E250" s="2" t="s">
-        <v>642</v>
+        <v>135</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D251" s="6"/>
+        <v>632</v>
+      </c>
+      <c r="C251" s="2"/>
+      <c r="D251" s="6">
+        <v>19991744783</v>
+      </c>
       <c r="E251" s="2" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="F251" s="2"/>
       <c r="G251" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="6"/>
       <c r="E252" s="2" t="s">
-        <v>150</v>
+        <v>642</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C253" s="2"/>
-      <c r="D253" s="6">
-        <v>19995384333</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D253" s="6"/>
       <c r="E253" s="2" t="s">
-        <v>15</v>
+        <v>648</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>782</v>
+        <v>643</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>652</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="C254" s="2"/>
       <c r="D254" s="6"/>
-      <c r="E254" s="2"/>
+      <c r="E254" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>783</v>
+        <v>649</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="6">
-        <v>19995521215</v>
+        <v>19995384333</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F255" s="2"/>
       <c r="G255" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>659</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C256" s="2"/>
       <c r="D256" s="6">
-        <v>11996202178</v>
+        <v>19989963229</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2" t="s">
-        <v>661</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C257" s="2"/>
       <c r="D257" s="6">
-        <v>19991129199</v>
+        <v>19981285216</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>11</v>
+        <v>575</v>
       </c>
       <c r="F257" s="2"/>
-      <c r="G257" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G257" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>662</v>
+        <v>781</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>664</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="C258" s="2"/>
       <c r="D258" s="6">
-        <v>19991558624</v>
+        <v>19992691215</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="F258" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>577</v>
+      </c>
       <c r="G258" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>666</v>
+        <v>781</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>668</v>
+        <v>579</v>
       </c>
       <c r="D259" s="6">
-        <v>19996132209</v>
+        <v>19989436892</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G259" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="F259" s="2"/>
+      <c r="G259" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>670</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
-        <v>671</v>
+        <v>581</v>
       </c>
       <c r="D260" s="6">
-        <v>19988563936</v>
+        <v>19997341650</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="F260" s="2"/>
-      <c r="G260" t="s">
+        <v>582</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G260" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C261" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2" t="s">
+        <v>656</v>
+      </c>
       <c r="D261" s="6">
-        <v>19999839019</v>
+        <v>19983460215</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="F261" s="2"/>
-      <c r="G261" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="6"/>
+      <c r="C262" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D262" s="6">
+        <v>19991129199</v>
+      </c>
       <c r="E262" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F262" s="2"/>
       <c r="G262" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="39" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D263" s="6">
-        <v>11994721855</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="G263" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+        <v>789</v>
+      </c>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C264" s="2"/>
+        <v>663</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>664</v>
+      </c>
       <c r="D264" s="6">
-        <v>19993772262</v>
+        <v>19991558624</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B265" s="2"/>
+        <v>666</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>667</v>
+      </c>
       <c r="C265" s="2" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="D265" s="6">
-        <v>19997570737</v>
+        <v>19996132209</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>648</v>
+        <v>669</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G265" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+      <c r="G265" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="C266" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="D266" s="6">
-        <v>19989060201</v>
+        <v>19988563936</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>145</v>
+        <v>672</v>
       </c>
       <c r="F266" s="2"/>
-      <c r="G266" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G266" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="6">
-        <v>19992879019</v>
+        <v>19999839019</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="G267" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+      <c r="F267" s="2"/>
+      <c r="G267" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>691</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
       <c r="D268" s="6"/>
       <c r="E268" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F268" s="2"/>
-      <c r="G268" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G268" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="D269" s="6">
-        <v>19971000078</v>
+        <v>11994721855</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>695</v>
+        <v>435</v>
       </c>
       <c r="G269" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2" t="s">
-        <v>696</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C270" s="2"/>
       <c r="D270" s="6">
-        <v>19996532656</v>
+        <v>19993772262</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>345</v>
+        <v>683</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C271" s="2"/>
+        <v>686</v>
+      </c>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2" t="s">
+        <v>687</v>
+      </c>
       <c r="D271" s="6">
-        <v>19970925870</v>
+        <v>19997570737</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F271" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G271" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>684</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>699</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="C272" s="2"/>
       <c r="D272" s="6">
-        <v>19997203049</v>
+        <v>19989060201</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>702</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C273" s="2"/>
       <c r="D273" s="6">
-        <v>19989560366</v>
+        <v>19992879019</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="G273" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>785</v>
+        <v>684</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="D274" s="6">
-        <v>19997698086</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="D274" s="6"/>
       <c r="E274" s="2" t="s">
-        <v>706</v>
+        <v>135</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>785</v>
+        <v>684</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="D275" s="6">
-        <v>19997861827</v>
+        <v>19971000078</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>766</v>
+        <v>695</v>
       </c>
       <c r="G275" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>785</v>
+        <v>684</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" s="2" t="s">
-        <v>222</v>
+        <v>696</v>
       </c>
       <c r="D276" s="6">
-        <v>19974123102</v>
+        <v>19996532656</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>95</v>
+        <v>345</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C277" s="2"/>
+      <c r="D277" s="6">
+        <v>19970925870</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F277" s="2"/>
+      <c r="G277" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D278" s="6">
+        <v>19997203049</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F278" s="2"/>
+      <c r="G278" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D279" s="6">
+        <v>19989560366</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G279" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="D277" s="6">
-        <v>19982386822</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="G277" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D278" s="6">
-        <v>19987814978</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G278" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C279" s="2"/>
-      <c r="D279" s="6">
-        <v>19987814978</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G279" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" s="2" t="s">
-        <v>715</v>
-      </c>
       <c r="B280" s="2" t="s">
-        <v>284</v>
+        <v>704</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="D280" s="6">
-        <v>19989197770</v>
+        <v>19997698086</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>7</v>
+        <v>706</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>718</v>
+        <v>785</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="D281" s="6">
-        <v>1938348079</v>
+        <v>19997861827</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F281" s="2"/>
+        <v>709</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>766</v>
+      </c>
       <c r="G281" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>722</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="B282" s="2"/>
       <c r="C282" s="2" t="s">
-        <v>723</v>
+        <v>222</v>
       </c>
       <c r="D282" s="6">
-        <v>19997630860</v>
+        <v>19974123102</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>724</v>
+        <v>95</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>721</v>
+        <v>785</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="C283" s="2"/>
-      <c r="D283" s="6"/>
+        <v>710</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D283" s="6">
+        <v>19982386822</v>
+      </c>
       <c r="E283" s="2" t="s">
-        <v>726</v>
+        <v>43</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>466</v>
+        <v>712</v>
       </c>
       <c r="G283" s="8" t="s">
         <v>772</v>
@@ -8497,371 +8480,401 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="6">
-        <v>19997054080</v>
+        <v>19999098550</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>648</v>
+        <v>30</v>
       </c>
       <c r="F284" s="2"/>
-      <c r="G284" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="C285" s="2"/>
-      <c r="D285" s="6"/>
+        <v>715</v>
+      </c>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D285" s="6">
+        <v>19987814978</v>
+      </c>
       <c r="E285" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F285" s="2"/>
-      <c r="G285" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G285" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="6">
-        <v>3592480284</v>
+        <v>19987814978</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="F286" s="2"/>
-      <c r="G286" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G286" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C287" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>717</v>
+      </c>
       <c r="D287" s="6">
-        <v>19974061580</v>
+        <v>19989197770</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>733</v>
+        <v>7</v>
       </c>
       <c r="F287" s="2"/>
-      <c r="G287" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G287" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="C288" s="2"/>
+        <v>719</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>720</v>
+      </c>
       <c r="D288" s="6">
-        <v>19997892388</v>
+        <v>1938348079</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>648</v>
+        <v>187</v>
       </c>
       <c r="F288" s="2"/>
-      <c r="G288" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G288" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="C289" s="2"/>
+        <v>722</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>723</v>
+      </c>
       <c r="D289" s="6">
-        <v>19992144704</v>
+        <v>19997630860</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="G289" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+      <c r="F289" s="2"/>
+      <c r="G289" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="C290" s="2"/>
-      <c r="D290" s="6">
-        <v>19992679775</v>
-      </c>
+      <c r="D290" s="6"/>
       <c r="E290" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="F290" s="2"/>
-      <c r="G290" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G290" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="6">
-        <v>19975734486</v>
+        <v>19997054080</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>737</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="F291" s="2"/>
       <c r="G291" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>749</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="C292" s="2"/>
       <c r="D292" s="6">
-        <v>19993480608</v>
+        <v>3592480284</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>732</v>
       </c>
+      <c r="C293" s="2"/>
       <c r="D293" s="6">
-        <v>19992837841</v>
+        <v>19974061580</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2" t="s">
-        <v>746</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C294" s="2"/>
       <c r="D294" s="6">
-        <v>19991857696</v>
+        <v>19997892388</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>745</v>
+        <v>648</v>
       </c>
       <c r="F294" s="2"/>
       <c r="G294" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="6">
-        <v>19991505521</v>
+        <v>19992144704</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F295" s="2"/>
+        <v>736</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>737</v>
+      </c>
       <c r="G295" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="6">
-        <v>19994915696</v>
+        <v>19992679775</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G296" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+      <c r="F296" s="2"/>
+      <c r="G296" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="C297" s="2"/>
-      <c r="D297" s="6"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D297" s="6">
+        <v>19975734486</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G297" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>197</v>
+        <v>747</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>198</v>
+        <v>748</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D298" s="6"/>
+        <v>749</v>
+      </c>
+      <c r="D298" s="6">
+        <v>19993480608</v>
+      </c>
       <c r="E298" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+      <c r="F298" s="2"/>
+      <c r="G298" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>241</v>
+        <v>744</v>
       </c>
       <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="6" t="s">
-        <v>776</v>
+      <c r="C299" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D299" s="6">
+        <v>19992837841</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>242</v>
+        <v>745</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A300" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C300" s="2">
-        <v>3875.9299000000001</v>
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2" t="s">
+        <v>746</v>
       </c>
       <c r="D300" s="6">
-        <v>19991663519</v>
+        <v>19991857696</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>410</v>
+        <v>745</v>
       </c>
       <c r="F300" s="2"/>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G300" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B301" s="2"/>
-      <c r="C301" s="2" t="s">
-        <v>656</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C301" s="2"/>
       <c r="D301" s="6">
-        <v>19983460215</v>
+        <v>19991505521</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>657</v>
+        <v>234</v>
       </c>
       <c r="F301" s="2"/>
-    </row>
-    <row r="302" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+      <c r="G301" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="B302" s="2"/>
+        <v>753</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>754</v>
+      </c>
       <c r="C302" s="2"/>
-      <c r="D302" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
-      <c r="G302" t="s">
+      <c r="D302" s="6">
+        <v>19994915696</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G302" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c r="C303" s="2"/>
-      <c r="D303" s="6">
-        <v>19999098550</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="D303" s="6"/>
+      <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G303" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}"/>
+  <autoFilter ref="A1:G303" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G303">
+      <sortCondition ref="A1:A303"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B151" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
   </hyperlinks>
